--- a/biology/Médecine/Cervicalgie/Cervicalgie.xlsx
+++ b/biology/Médecine/Cervicalgie/Cervicalgie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On parle en médecine de cervicalgie pour désigner une douleur du cou. Il s'agit d'un terme générique et une cervicalgie peut avoir plusieurs causes[1]. Les plus fréquentes sont un traumatisme au niveau du rachis cervical, l'arthrose cervicale et une hernie discale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On parle en médecine de cervicalgie pour désigner une douleur du cou. Il s'agit d'un terme générique et une cervicalgie peut avoir plusieurs causes. Les plus fréquentes sont un traumatisme au niveau du rachis cervical, l'arthrose cervicale et une hernie discale.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La cervicalgie se définit comme une douleur localisée sur la partie haute de la colonne vertébrale, plus précisément au niveau des vertèbres cervicales (nuque).
 Même si les cervicalgies sont généralement sans conséquence grave, elles peuvent limiter les mouvements de la personne qui en souffre.
@@ -545,7 +559,9 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">30 à 50 % de la population serait concernée chaque année. La cervicalgie aiguë la plus connue est le torticolis.
 Chez les plus de 50 ans, il s’agit généralement d’arthrose alors que chez les plus jeunes, le torticolis passe au premier plan.
@@ -578,7 +594,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il existe plusieurs types de cervicalgies :
 La cervicalgie mécanique. C'est la structure articulaire qui est touchée. C'est le cas de l’arthrose cervicale, par exemple. Le problème peut être lié aussi à un canal cervical étroit (la moelle épinière présente dans la colonne vertébrale cervicale, se trouve à l'étroit).
@@ -612,12 +630,14 @@
           <t>Examens paracliniques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les examens dépendent du contexte et dans un premier temps seront simples
 Une radiographie du rachis cervical de face et de profil et en fonction de la localisation un autre cliché cette fois de face et la bouche ouverte pour voir les deux premières vertèbres cervicales ;
 Un bilan inflammatoire ne sera réalisé que s’il existe des signes pouvant évoquer une pathologie inflammatoire : vitesse de sédimentation et dosage de la protéine C réactive.
-D’autres examens comme en particulier l’IRM ou le scanner ne seront indiqués qu’en fonction des résultats des précédents examens à la recherche d’une étiologie spécifique mais jamais en première intention ou systématiquement[3].
+D’autres examens comme en particulier l’IRM ou le scanner ne seront indiqués qu’en fonction des résultats des précédents examens à la recherche d’une étiologie spécifique mais jamais en première intention ou systématiquement.
 </t>
         </is>
       </c>
@@ -646,10 +666,12 @@
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La prévention des cervicalgies consiste essentiellement à respecter des règles d’hygiène et de posture au quotidien. Par exemple, bien placer son écran au bureau et être bien assis, sur un siège ad hoc. Les conseils d'un kinésithérapeute ou d'un ergothérapeute peuvent aider à prévenir les récidives.
-L'article 3 du décret du 25 mars 2007 relatif aux actes et aux conditions de l'exercice de l'ostéopathie, dispose qu'un médecin doit d'abord attester de l'absence de contre indication médicale à l'ostéopathie avant toute intervention ostéopathique[4].
+L'article 3 du décret du 25 mars 2007 relatif aux actes et aux conditions de l'exercice de l'ostéopathie, dispose qu'un médecin doit d'abord attester de l'absence de contre indication médicale à l'ostéopathie avant toute intervention ostéopathique.
 </t>
         </is>
       </c>
@@ -678,12 +700,14 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vingt guides à destination des professionnels de santé concernant les traitements de la cervicalgie sont recensés[5]. Dix-neuf de ces guides recommandent la pratique d'exercices actifs. 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vingt guides à destination des professionnels de santé concernant les traitements de la cervicalgie sont recensés. Dix-neuf de ces guides recommandent la pratique d'exercices actifs. 
 Tous les guides sauf deux recommandent la mobilisation. Or, le risque de raideur et de rétraction peuvent nécessiter des mouvements passifs. 
 La majorité des guides recommandent d'éduquer les patients sur l'importance de ne pas se reposer et de rester actif. Seulement la moitié des guides recommandent d'utiliser des médicaments (principalement du paracétamol, des opioïdes ou des AINS). La plupart se prononcent contre le port de colliers cervicaux.
-Les kinésithérapeutes et les occlusodontistes (médecins spécialistes de la mâchoire) peuvent proposer une prise en charge pluridisciplinaire du patient[6].
+Les kinésithérapeutes et les occlusodontistes (médecins spécialistes de la mâchoire) peuvent proposer une prise en charge pluridisciplinaire du patient.
 </t>
         </is>
       </c>
